--- a/data/Project- Simona Nisavic.xlsx
+++ b/data/Project- Simona Nisavic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA Java\Selenium projekat\SeleniumRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542019FE-7552-4214-B4B4-197994F9FF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBDFC68-AC4E-4D86-B53E-3F6A217FB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{12FA3A49-36AD-411B-9075-0EE890AC612E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12FA3A49-36AD-411B-9075-0EE890AC612E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="150">
   <si>
     <t>Test case</t>
   </si>
@@ -96,36 +96,15 @@
     <t>Click on "Create an account" button</t>
   </si>
   <si>
-    <t>Check the radio button</t>
-  </si>
-  <si>
     <t>Insert name in "First name" field</t>
   </si>
   <si>
     <t>Insert last name in "Last name" field</t>
   </si>
   <si>
-    <t>Insert email in "Email" field</t>
-  </si>
-  <si>
     <t>Insert password in "Password" field</t>
   </si>
   <si>
-    <t>Choose date of birth from dropdown list</t>
-  </si>
-  <si>
-    <t>Insert name in "First name" field, in Your Address section</t>
-  </si>
-  <si>
-    <t>Insert last name in "Last name" field, in Your Address section</t>
-  </si>
-  <si>
-    <t>Insert address in "Address" field, in Your Address section</t>
-  </si>
-  <si>
-    <t>Insert city in "City" field, in Your Address section</t>
-  </si>
-  <si>
     <t>Choose the State  from dropdown list</t>
   </si>
   <si>
@@ -445,6 +424,60 @@
   </si>
   <si>
     <t>TC14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC1: </t>
+  </si>
+  <si>
+    <t>Check the radio button (choose social title)</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Insert name in "First name" field, Your Address section</t>
+  </si>
+  <si>
+    <t>Insert last name in "Last name" field, Your Address section</t>
+  </si>
+  <si>
+    <t>Insert address in "Address" field</t>
+  </si>
+  <si>
+    <t>Insert city in "City" field</t>
+  </si>
+  <si>
+    <t>In test case, only mandatory fields are filled</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Simona</t>
+  </si>
+  <si>
+    <t>Lugumerski</t>
+  </si>
+  <si>
+    <t>Choose day of birth from dropdown list</t>
+  </si>
+  <si>
+    <t>Choose month of birth from dropdown list</t>
+  </si>
+  <si>
+    <t>Choose year of birth from dropdown list</t>
+  </si>
+  <si>
+    <t>Djurdja Brankovica</t>
+  </si>
+  <si>
+    <t>Sombor</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -683,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -817,6 +850,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,12 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -853,6 +889,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -1166,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D326CF3-4810-4890-8443-B1A4B412013F}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1199,7 +1236,7 @@
         <f>CreateTheAccount!B3</f>
         <v>Test that account could be successfully created</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4">
@@ -1210,82 +1247,127 @@
         <f>LogInTests!B4</f>
         <v>Test login functionality</v>
       </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="str">
-        <f>LogInTests!B24</f>
-        <v>Test logout functionality</v>
-      </c>
+        <f>LogInTests!B12</f>
+        <v>Test that user can use "Forgot your password" option</v>
+      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="str">
-        <f>MyAccountTests!B5</f>
-        <v>Test that user can successfully update his address</v>
-      </c>
+        <f>LogInTests!B24</f>
+        <v>Test logout functionality</v>
+      </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="str">
+        <f>MyAccountTests!B5</f>
+        <v>Test that user can successfully update his address</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="str">
         <f>MyAccountTests!B15</f>
         <v>Test that user can add a new address</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" t="str">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="str">
         <f>MyAccountTests!B29</f>
         <v>Test that user can successfully remove his address</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="69" t="s">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="str">
+        <f>MyAccountTests!B38</f>
+        <v>Test that user can change social title</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="str">
+        <f>MyAccountTests!B47</f>
+        <v>Test that user can change first name</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="str">
+        <f>MyAccountTests!B56</f>
+        <v>Test that user can change last name</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="str">
+        <f>MyAccountTests!B65</f>
+        <v>Test that user can change date of birth</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="str">
+        <f>MyAccountTests!B77</f>
+        <v>Test that wishlist could be added</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="str">
+        <f>MyAccountTests!B85</f>
+        <v>Test that two products could be added to wishlist</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="62" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="69" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="69" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="69" t="s">
-        <v>138</v>
-      </c>
+      <c r="B15" t="str">
+        <f>MyAccountTests!B98</f>
+        <v>Test that wishlist coud be removed</v>
+      </c>
+      <c r="C15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1295,17 +1377,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A74262-2DBB-4C59-A7B6-1B53BF7E6120}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1318,13 +1400,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+        <v>84</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
@@ -1350,9 +1432,11 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
@@ -1368,159 +1452,214 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="C12" s="3">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="C13" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1984</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f>C9</f>
+        <v>Simona</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>C10</f>
+        <v>Lugumerski</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C20" s="3">
+        <v>25000</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C22" s="3">
+        <v>62404440</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="24.95" customHeight="1">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:D3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{60D927D6-3625-443B-91D3-B7840F4BD558}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1529,7 +1668,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1554,7 +1693,7 @@
     <row r="2" spans="1:11" s="13" customFormat="1">
       <c r="A2" s="12"/>
       <c r="B2" s="13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1565,24 +1704,24 @@
         <v>18</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="63"/>
+        <v>46</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="66"/>
       <c r="E4" s="37" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F4" s="38"/>
-      <c r="G4" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="65"/>
+      <c r="G4" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="32" t="s">
@@ -1619,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
@@ -1642,7 +1781,7 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="39" t="s">
@@ -1657,18 +1796,18 @@
         <v>3</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="35" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="19"/>
@@ -1695,22 +1834,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="29" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J10" s="24"/>
     </row>
@@ -1729,13 +1868,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="46" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
+        <v>98</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="56"/>
       <c r="F12" s="35"/>
       <c r="G12" s="56"/>
@@ -1768,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
@@ -1804,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="20"/>
@@ -1821,7 +1960,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>16</v>
@@ -1834,7 +1973,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="20"/>
@@ -1845,10 +1984,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D19" s="24"/>
       <c r="G19" s="16"/>
@@ -1864,16 +2003,16 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G22" s="16"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="47" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="41"/>
@@ -1895,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="20"/>
@@ -1905,10 +2044,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D27" s="24"/>
     </row>
@@ -1938,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EC6970-8B08-4AE4-8415-7655C3E19A27}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1955,29 +2094,29 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="12"/>
       <c r="B2" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="52" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="46" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
+        <v>54</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
@@ -1996,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
@@ -2006,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
@@ -2016,10 +2155,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D9" s="20"/>
     </row>
@@ -2028,10 +2167,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D10" s="20"/>
     </row>
@@ -2040,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="20"/>
@@ -2050,22 +2189,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D12" s="24"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="46" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
+        <v>85</v>
+      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
@@ -2084,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20"/>
@@ -2094,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
@@ -2104,10 +2243,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D19" s="20"/>
     </row>
@@ -2116,10 +2255,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D20" s="20"/>
     </row>
@@ -2128,10 +2267,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D21" s="20"/>
     </row>
@@ -2140,7 +2279,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C22" s="51">
         <v>23000</v>
@@ -2153,7 +2292,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C23" s="51">
         <v>620404440</v>
@@ -2165,10 +2304,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D24" s="20"/>
     </row>
@@ -2177,7 +2316,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="20"/>
@@ -2187,22 +2326,22 @@
         <v>8</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D26" s="24"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="46" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
+        <v>55</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="32" t="s">
@@ -2221,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="20"/>
@@ -2231,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="20"/>
@@ -2241,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="20"/>
@@ -2251,27 +2390,27 @@
         <v>8</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D34" s="24"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="52" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="46" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
+        <v>89</v>
+      </c>
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="32" t="s">
@@ -2290,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="20"/>
@@ -2300,10 +2439,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D41" s="20"/>
     </row>
@@ -2312,10 +2451,10 @@
         <v>3</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D42" s="20"/>
     </row>
@@ -2324,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="20"/>
@@ -2335,7 +2474,7 @@
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D44" s="24"/>
     </row>
@@ -2347,13 +2486,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="46" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="67"/>
+        <v>86</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="70"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
@@ -2372,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="20"/>
@@ -2382,10 +2521,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C50" s="49" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D50" s="20"/>
     </row>
@@ -2394,10 +2533,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C51" s="49" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D51" s="20"/>
     </row>
@@ -2406,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="20"/>
@@ -2417,19 +2556,19 @@
       </c>
       <c r="B53" s="31"/>
       <c r="C53" s="23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D53" s="24"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="46" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
+        <v>87</v>
+      </c>
+      <c r="C56" s="69"/>
+      <c r="D56" s="70"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="32" t="s">
@@ -2448,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="20"/>
@@ -2458,10 +2597,10 @@
         <v>2</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C59" s="49" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D59" s="20"/>
     </row>
@@ -2470,10 +2609,10 @@
         <v>3</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D60" s="20"/>
     </row>
@@ -2482,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="20"/>
@@ -2493,19 +2632,19 @@
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D62" s="24"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="46" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="67"/>
+        <v>88</v>
+      </c>
+      <c r="C65" s="69"/>
+      <c r="D65" s="70"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
@@ -2524,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="20"/>
@@ -2534,9 +2673,9 @@
         <v>2</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="68">
+        <v>94</v>
+      </c>
+      <c r="C68" s="61">
         <v>3</v>
       </c>
       <c r="D68" s="20"/>
@@ -2546,9 +2685,9 @@
         <v>3</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="68">
+        <v>95</v>
+      </c>
+      <c r="C69" s="61">
         <v>9</v>
       </c>
       <c r="D69" s="20"/>
@@ -2558,9 +2697,9 @@
         <v>4</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="68">
+        <v>96</v>
+      </c>
+      <c r="C70" s="61">
         <v>1985</v>
       </c>
       <c r="D70" s="20"/>
@@ -2570,10 +2709,10 @@
         <v>5</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C71" s="60" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D71" s="20"/>
     </row>
@@ -2582,7 +2721,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="20"/>
@@ -2593,24 +2732,24 @@
       </c>
       <c r="B73" s="31"/>
       <c r="C73" s="23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D73" s="24"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="52" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="46" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="67"/>
+        <v>78</v>
+      </c>
+      <c r="C77" s="69"/>
+      <c r="D77" s="70"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="32" t="s">
@@ -2629,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="20"/>
@@ -2639,10 +2778,10 @@
         <v>2</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C80" s="49" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D80" s="20"/>
     </row>
@@ -2651,7 +2790,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C81" s="21"/>
       <c r="D81" s="20"/>
@@ -2661,20 +2800,20 @@
         <v>8</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="24"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="46" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" s="66"/>
-      <c r="D85" s="67"/>
+        <v>77</v>
+      </c>
+      <c r="C85" s="69"/>
+      <c r="D85" s="70"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="32" t="s">
@@ -2693,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C87" s="19"/>
       <c r="D87" s="20"/>
@@ -2703,10 +2842,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C88" s="49" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D88" s="20"/>
     </row>
@@ -2715,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D89" s="20"/>
     </row>
@@ -2724,10 +2863,10 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D90" s="20"/>
     </row>
@@ -2736,7 +2875,7 @@
         <v>5</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D91" s="20"/>
     </row>
@@ -2745,10 +2884,10 @@
         <v>6</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D92" s="20"/>
     </row>
@@ -2757,7 +2896,7 @@
         <v>7</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="20"/>
@@ -2767,7 +2906,7 @@
         <v>8</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C94" s="23">
         <v>4</v>
@@ -2776,13 +2915,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="46" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="66"/>
-      <c r="D98" s="67"/>
+        <v>79</v>
+      </c>
+      <c r="C98" s="69"/>
+      <c r="D98" s="70"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="32" t="s">
@@ -2801,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C100" s="19"/>
       <c r="D100" s="20"/>
@@ -2811,7 +2950,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C101" s="21"/>
       <c r="D101" s="20"/>
@@ -2821,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="20"/>
@@ -2831,7 +2970,7 @@
         <v>8</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C103" s="23">
         <v>3</v>

--- a/data/Project- Simona Nisavic.xlsx
+++ b/data/Project- Simona Nisavic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA Java\Selenium projekat\SeleniumRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBDFC68-AC4E-4D86-B53E-3F6A217FB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6933A8B-96DD-4092-9035-46380B209E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12FA3A49-36AD-411B-9075-0EE890AC612E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{12FA3A49-36AD-411B-9075-0EE890AC612E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="1" r:id="rId1"/>
@@ -1203,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D326CF3-4810-4890-8443-B1A4B412013F}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2077,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EC6970-8B08-4AE4-8415-7655C3E19A27}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/Project- Simona Nisavic.xlsx
+++ b/data/Project- Simona Nisavic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QA Java\Selenium projekat\SeleniumRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6933A8B-96DD-4092-9035-46380B209E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEADA84-8728-46B1-9356-49B98A6D77DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{12FA3A49-36AD-411B-9075-0EE890AC612E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="151">
   <si>
     <t>Test case</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>Number of addresses</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A74262-2DBB-4C59-A7B6-1B53BF7E6120}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -2077,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EC6970-8B08-4AE4-8415-7655C3E19A27}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2390,10 +2393,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>103</v>
+        <v>150</v>
+      </c>
+      <c r="C34" s="59">
+        <v>1</v>
       </c>
       <c r="D34" s="24"/>
     </row>
